--- a/项目管理/[01]政策体系/测试体系/测试管理/日报/项目日进度表.xlsx
+++ b/项目管理/[01]政策体系/测试体系/测试管理/日报/项目日进度表.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>2014年12月</t>
   </si>
@@ -290,6 +290,10 @@
       </rPr>
       <t>表示编写测试报告</t>
     </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -744,6 +748,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -785,15 +798,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1167,7 +1171,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
+      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1186,59 +1190,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="24" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="54"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="60" t="s">
@@ -1250,39 +1254,39 @@
       <c r="F2" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="54"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="57"/>
       <c r="AL2" s="63" t="s">
         <v>8</v>
       </c>
@@ -1294,9 +1298,9 @@
       </c>
     </row>
     <row r="3" spans="1:40" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="61"/>
       <c r="E3" s="61"/>
       <c r="F3" s="61"/>
@@ -1398,20 +1402,20 @@
       <c r="AN3" s="68"/>
     </row>
     <row r="4" spans="1:40" s="3" customFormat="1" ht="36">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="43" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="43" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="12">
         <v>90</v>
       </c>
       <c r="E4" s="13">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>14</v>
@@ -1437,13 +1441,17 @@
       <c r="Q4" s="16">
         <v>80</v>
       </c>
-      <c r="R4" s="16"/>
+      <c r="R4" s="16">
+        <v>87</v>
+      </c>
       <c r="S4" s="30"/>
       <c r="T4" s="31"/>
       <c r="U4" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="30"/>
+      <c r="V4" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="W4" s="30"/>
       <c r="X4" s="30"/>
       <c r="Y4" s="30"/>
@@ -1470,16 +1478,16 @@
       </c>
     </row>
     <row r="5" spans="1:40" s="3" customFormat="1" ht="36">
-      <c r="A5" s="57"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="57"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="12">
         <v>90</v>
       </c>
       <c r="E5" s="13">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>19</v>
@@ -1501,7 +1509,9 @@
       <c r="U5" s="32">
         <v>70</v>
       </c>
-      <c r="V5" s="30"/>
+      <c r="V5" s="30">
+        <v>87</v>
+      </c>
       <c r="W5" s="30"/>
       <c r="X5" s="30"/>
       <c r="Y5" s="30"/>
@@ -1522,13 +1532,13 @@
       <c r="AN5" s="42"/>
     </row>
     <row r="6" spans="1:40" s="3" customFormat="1" ht="36">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="43" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="44" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="18">
@@ -1574,11 +1584,11 @@
       <c r="AN6" s="42"/>
     </row>
     <row r="7" spans="1:40" s="3" customFormat="1" ht="36">
-      <c r="A7" s="57"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="18">
         <v>29</v>
       </c>
@@ -1622,13 +1632,13 @@
       <c r="AN7" s="42"/>
     </row>
     <row r="8" spans="1:40" s="3" customFormat="1" ht="36">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="43" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="44" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="19">
@@ -1680,11 +1690,11 @@
       <c r="AN8" s="42"/>
     </row>
     <row r="9" spans="1:40" s="3" customFormat="1" ht="36">
-      <c r="A9" s="57"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="59"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="19">
         <v>25</v>
       </c>
@@ -1730,13 +1740,13 @@
       <c r="AN9" s="42"/>
     </row>
     <row r="10" spans="1:40" s="3" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="43" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="44" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="19"/>
@@ -1786,11 +1796,11 @@
       <c r="AN10" s="42"/>
     </row>
     <row r="11" spans="1:40" s="3" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="57"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="19"/>
       <c r="E11" s="13"/>
       <c r="F11" s="14"/>
@@ -1830,13 +1840,13 @@
       <c r="AN11" s="42"/>
     </row>
     <row r="12" spans="1:40" s="3" customFormat="1" ht="36">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="43" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="44" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="19"/>
@@ -1878,11 +1888,11 @@
       <c r="AN12" s="42"/>
     </row>
     <row r="13" spans="1:40" s="3" customFormat="1" ht="36">
-      <c r="A13" s="57"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="59"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="19"/>
       <c r="E13" s="13"/>
       <c r="F13" s="14"/>
@@ -2333,16 +2343,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:AK1"/>
@@ -2357,6 +2357,16 @@
     <mergeCell ref="AL2:AL3"/>
     <mergeCell ref="AM2:AM3"/>
     <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
